--- a/biology/Botanique/Liste_des_genres_d'Orchidaceae/Liste_des_genres_d'Orchidaceae.xlsx
+++ b/biology/Botanique/Liste_des_genres_d'Orchidaceae/Liste_des_genres_d'Orchidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27Orchidaceae</t>
+          <t>Liste_des_genres_d'Orchidaceae</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Voici la liste complète des genres de la famille des Orchidaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27Orchidaceae</t>
+          <t>Liste_des_genres_d'Orchidaceae</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 mai 2010)[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aa Rchb.f. (1854)
@@ -632,7 +646,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27Orchidaceae</t>
+          <t>Liste_des_genres_d'Orchidaceae</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -650,7 +664,9 @@
           <t>Selon Angiosperm Phylogeny Website                        (20 mai 2010)[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhynchostele
 Aa
@@ -1544,7 +1560,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27Orchidaceae</t>
+          <t>Liste_des_genres_d'Orchidaceae</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1562,7 +1578,9 @@
           <t>Selon NCBI  (20 mai 2010)[3]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Apostasiodeae (nommé Apostasioideae selon d'autres sources)
@@ -2337,7 +2355,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27Orchidaceae</t>
+          <t>Liste_des_genres_d'Orchidaceae</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2355,7 +2373,9 @@
           <t>Selon DELTA Angio           (20 mai 2010)[4]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aa
